--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/VINupload_CA_SELECT_UPDATE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/VINupload_CA_SELECT_UPDATE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>VIN</t>
   </si>
@@ -101,18 +101,12 @@
     <t>ANTITHEFTCODE_TEXT</t>
   </si>
   <si>
-    <t>STAT</t>
-  </si>
-  <si>
     <t>COLL_SYMBOL</t>
   </si>
   <si>
     <t>COMP_SYMBOL</t>
   </si>
   <si>
-    <t>CHOICE_TIER</t>
-  </si>
-  <si>
     <t>ALTFUEL</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>039</t>
   </si>
   <si>
@@ -210,6 +201,33 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>BI_SYMBOL</t>
+  </si>
+  <si>
+    <t>PD_SYMBOL</t>
+  </si>
+  <si>
+    <t>UM_SYMBOL</t>
+  </si>
+  <si>
+    <t>MP_SYMBOL</t>
+  </si>
+  <si>
+    <t>ENTRYDATE</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>ANTITHEFT_DISCOUNT</t>
+  </si>
+  <si>
+    <t>RESTRAINTS_DISCOUNT</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -556,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,12 +594,12 @@
     <col min="23" max="23" width="22.21875" customWidth="1"/>
     <col min="24" max="24" width="20.88671875" customWidth="1"/>
     <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="8.21875" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="28" width="16.21875" customWidth="1"/>
+    <col min="26" max="26" width="14.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.21875" customWidth="1"/>
+    <col min="36" max="36" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,50 +685,68 @@
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C2" s="4">
         <v>2004</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="H2" s="4">
         <v>20000</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O2" s="4">
         <v>4</v>
@@ -718,136 +754,172 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S2" s="4">
         <v>2</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V2" s="4">
         <v>1</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>44</v>
       </c>
       <c r="AA2" s="4">
         <v>44</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2">
+        <v>20000101</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C3" s="4">
         <v>2004</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4">
         <v>53080</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O3" s="4">
         <v>6</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="4">
         <v>214</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S3" s="4">
         <v>2</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V3" s="4">
         <v>2</v>
       </c>
       <c r="W3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4" t="s">
-        <v>43</v>
+      <c r="AC3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3">
+        <v>20000101</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="G4" s="4"/>
@@ -872,8 +944,6 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
